--- a/demo/template.xlsx
+++ b/demo/template.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="130">
   <si>
     <r>
       <t xml:space="preserve">T</t>
@@ -453,6 +453,9 @@
     <t>エフェクタ系デモ</t>
   </si>
   <si>
+    <t>※ テンプレートに画像を含めておかないと印刷設定が壊れる（原因不明。不具合？）</t>
+  </si>
+  <si>
     <t>このセルはリンクが貼られます{$Link('A1')}</t>
   </si>
   <si>
@@ -544,7 +547,7 @@
       <name val="ＭＳ ゴシック"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -553,9 +556,6 @@
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -604,44 +604,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+  <cellXfs count="14">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -651,6 +654,41 @@
   <dxfs count="0"/>
   <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="371475" cy="371475"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="図 1" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -939,7 +977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -1046,7 +1084,7 @@
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
@@ -1059,7 +1097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -1803,7 +1841,7 @@
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
@@ -1816,7 +1854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -2290,7 +2328,7 @@
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
@@ -2303,7 +2341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -2502,7 +2540,7 @@
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
@@ -2515,14 +2553,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="18" defaultColWidth="12.5" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2547,7 +2585,9 @@
     <row r="2" spans="1:10" customHeight="1" ht="18">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="C2" s="13" t="s">
+        <v>104</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -2558,7 +2598,7 @@
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
       <c r="A3" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2572,7 +2612,7 @@
     </row>
     <row r="4" spans="1:10" customHeight="1" ht="18">
       <c r="A4" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2586,10 +2626,10 @@
     </row>
     <row r="5" spans="1:10" customHeight="1" ht="18">
       <c r="A5" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2602,10 +2642,10 @@
     </row>
     <row r="6" spans="1:10" customHeight="1" ht="18">
       <c r="A6" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -2618,10 +2658,10 @@
     </row>
     <row r="7" spans="1:10" customHeight="1" ht="18">
       <c r="A7" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -2646,25 +2686,25 @@
     </row>
     <row r="9" spans="1:10" customHeight="1" ht="62.25">
       <c r="A9" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:10" customHeight="1" ht="18">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:10" customHeight="1" ht="18">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:10" customHeight="1" ht="18">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:10" customHeight="1" ht="18">
@@ -2674,56 +2714,56 @@
     </row>
     <row r="15" spans="1:10" customHeight="1" ht="18">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:10" customHeight="1" ht="18">
       <c r="A17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:10" customHeight="1" ht="18">
       <c r="A19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:10" customHeight="1" ht="18">
       <c r="A21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
@@ -2732,5 +2772,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>